--- a/Luban/ExcelConfig/Datas/adventure.xlsx
+++ b/Luban/ExcelConfig/Datas/adventure.xlsx
@@ -9,7 +9,20 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -85,7 +98,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1030,7 +1043,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1144,7 +1157,7 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
@@ -1155,7 +1168,7 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="4:6">
@@ -1163,7 +1176,7 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="11" spans="4:6">
@@ -1171,7 +1184,7 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="4:6">
@@ -1179,7 +1192,7 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="4:6">
@@ -1187,7 +1200,7 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="4:6">
@@ -1195,7 +1208,7 @@
         <v>20</v>
       </c>
       <c r="F14">
-        <v>1.2</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="15" spans="4:6">
@@ -1203,7 +1216,7 @@
         <v>20</v>
       </c>
       <c r="F15">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="4:6">
@@ -1211,7 +1224,7 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>1.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="17" spans="4:6">
@@ -1219,7 +1232,7 @@
         <v>20</v>
       </c>
       <c r="F17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="4:6">
@@ -1227,7 +1240,7 @@
         <v>20</v>
       </c>
       <c r="F18">
-        <v>1.6</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="19" spans="4:6">
@@ -1235,7 +1248,7 @@
         <v>20</v>
       </c>
       <c r="F19">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="20" spans="4:6">
@@ -1243,7 +1256,7 @@
         <v>20</v>
       </c>
       <c r="F20">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="21" spans="4:6">
@@ -1251,7 +1264,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="22" spans="4:6">
@@ -1259,7 +1272,7 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="23" spans="4:6">
@@ -1267,7 +1280,7 @@
         <v>20</v>
       </c>
       <c r="F23">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="24" spans="4:6">
@@ -1275,7 +1288,7 @@
         <v>20</v>
       </c>
       <c r="F24">
-        <v>2.2</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="25" spans="4:6">
@@ -1283,7 +1296,7 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="26" spans="4:6">
@@ -1291,7 +1304,7 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/ExcelConfig/Datas/adventure.xlsx
+++ b/Luban/ExcelConfig/Datas/adventure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>(list#sep=;),float</t>
   </si>
   <si>
-    <t>(list#sep=;),behavior.Info</t>
+    <t>(list#sep=;),behavior.Info#sep=,</t>
   </si>
   <si>
     <t>##group</t>
@@ -86,13 +86,13 @@
     <t>lv1/1</t>
   </si>
   <si>
-    <t>并行节点`0`-1</t>
+    <t>并行节点,0,-1</t>
   </si>
   <si>
     <t>lv2/1|lv3/1</t>
   </si>
   <si>
-    <t>默认闯关冒险`0</t>
+    <t>默认闯关冒险,0</t>
   </si>
 </sst>
 </file>
@@ -1043,16 +1043,16 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="6" width="38.125" customWidth="1"/>
-    <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="7" max="7" width="36.1666666666667" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="33.5" customWidth="1"/>
     <col min="10" max="10" width="31.5" customWidth="1"/>

--- a/Luban/ExcelConfig/Datas/adventure.xlsx
+++ b/Luban/ExcelConfig/Datas/adventure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>并行节点,0,-1</t>
+  </si>
+  <si>
+    <t>lv5/1</t>
   </si>
   <si>
     <t>lv2/1|lv3/1</t>
@@ -1043,10 +1046,10 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -1156,16 +1159,19 @@
       <c r="D8" t="s">
         <v>20</v>
       </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
       <c r="F8">
         <v>0.55</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="4:6">
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <v>0.6</v>
@@ -1173,7 +1179,7 @@
     </row>
     <row r="10" spans="4:6">
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10">
         <v>0.65</v>
@@ -1181,7 +1187,7 @@
     </row>
     <row r="11" spans="4:6">
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>0.7</v>
@@ -1189,7 +1195,7 @@
     </row>
     <row r="12" spans="4:6">
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12">
         <v>0.75</v>
@@ -1197,7 +1203,7 @@
     </row>
     <row r="13" spans="4:6">
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13">
         <v>0.8</v>
@@ -1205,7 +1211,7 @@
     </row>
     <row r="14" spans="4:6">
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14">
         <v>0.85</v>
@@ -1213,7 +1219,7 @@
     </row>
     <row r="15" spans="4:6">
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15">
         <v>0.9</v>
@@ -1221,7 +1227,7 @@
     </row>
     <row r="16" spans="4:6">
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16">
         <v>0.95</v>
@@ -1229,7 +1235,7 @@
     </row>
     <row r="17" spans="4:6">
       <c r="D17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1237,7 +1243,7 @@
     </row>
     <row r="18" spans="4:6">
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18">
         <v>1.05</v>
@@ -1245,7 +1251,7 @@
     </row>
     <row r="19" spans="4:6">
       <c r="D19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19">
         <v>1.1</v>
@@ -1253,7 +1259,7 @@
     </row>
     <row r="20" spans="4:6">
       <c r="D20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20">
         <v>1.15</v>
@@ -1261,7 +1267,7 @@
     </row>
     <row r="21" spans="4:6">
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21">
         <v>1.2</v>
@@ -1269,7 +1275,7 @@
     </row>
     <row r="22" spans="4:6">
       <c r="D22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22">
         <v>1.25</v>
@@ -1277,7 +1283,7 @@
     </row>
     <row r="23" spans="4:6">
       <c r="D23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23">
         <v>1.3</v>
@@ -1285,7 +1291,7 @@
     </row>
     <row r="24" spans="4:6">
       <c r="D24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24">
         <v>1.35</v>
@@ -1293,7 +1299,7 @@
     </row>
     <row r="25" spans="4:6">
       <c r="D25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25">
         <v>1.4</v>
@@ -1301,7 +1307,7 @@
     </row>
     <row r="26" spans="4:6">
       <c r="D26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26">
         <v>1.45</v>
